--- a/Sim01_GradingForm_v01.xlsx
+++ b/Sim01_GradingForm_v01.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael L\Documents\Docs_2021\Educator\Reference\CS_480\Simulator\Spring_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirollos\OneDrive\Desktop\Sim01_kez43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F6091-6BA6-4EE0-9B22-0DC7338705FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C016B-55B3-4BF2-B3AA-03A5A9582815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="o62qHq+XZ/RyrvDVfW+UkyeeOcMQwUKRLOo/rKQiXO+q4m8Flb2auLoVgq9iorxTEV1PEcPi3RPhJ5gWWf/Nig==" workbookSaltValue="fBWhOPJ88SQ1NIMrpZtW3Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F37BE33A-AB5B-4B21-8573-A1ED1735F114}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F37BE33A-AB5B-4B21-8573-A1ED1735F114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>Sim:</t>
   </si>
@@ -419,6 +430,48 @@
   </si>
   <si>
     <t>- both together would be best</t>
+  </si>
+  <si>
+    <t>All file formats are correct as per the requirements. I followed the instructions provided in the documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and videos thoroughly. Additionally, I ensured to include all the required comments in the code as specified.</t>
+  </si>
+  <si>
+    <t>I provided detailed comments explaining each function, ensuring clarity throughout the code. For example, in configops.c at line 8, the function getConfigData is</t>
+  </si>
+  <si>
+    <t>thoroughly documented with a detailed description of its purpose and parameters. The comment explains that the function is a driver for capturing configuration</t>
+  </si>
+  <si>
+    <t>data from a config file, specifying input parameters such as the file name, pointers to config data, and the end-state message. Additionally, it outlines the output (a Boolean result),</t>
+  </si>
+  <si>
+    <t>the dependencies, and the devices involved. While this function is large and could take hours to understand, the detailed comments and the well-structured function name make it much easier to follow and comprehend, allowing for quicker understanding of its purpose and operation.</t>
+  </si>
+  <si>
+    <t>All files are named in a clear and readable way, making it easy to locate any function. For example, if</t>
+  </si>
+  <si>
+    <t>I need to find the runSim function, I know to look in simulator.c. This naming convention supports program</t>
+  </si>
+  <si>
+    <t>modularity and allows for efficient navigation through the codebase.</t>
+  </si>
+  <si>
+    <t>getConfigData function (line 28) and the displayConfigData function are well-defined and intuitively named, reflecting their roles in accessing and presenting configuration data.</t>
+  </si>
+  <si>
+    <t>Similarly, the getMetaData function (line 54) and its associated functions ensure that meta-data is handled efficiently, with OpCodeType *metaDataPtr (line 13) being appropriately</t>
+  </si>
+  <si>
+    <t>used to store and manage meta-data. Both sets of functions—those for configuration and meta-data—are implemented with clear and understandable accessors and mutators, ensuring that data is managed effectively and consistently throughout the program.</t>
+  </si>
+  <si>
+    <t>The code demonstrates an excellent understanding and implementation of data handling through clear and effective use of data structures and functions. Specifically, the</t>
+  </si>
+  <si>
+    <t>Attatced screenshots</t>
   </si>
 </sst>
 </file>
@@ -630,9 +683,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,7 +723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -776,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -918,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -928,24 +981,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571FDDCA-B735-4120-BCD0-BD4A083CA7E0}">
   <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O138" sqref="O138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="3" width="5.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="4"/>
-    <col min="13" max="14" width="10.7109375" style="4" customWidth="1"/>
-    <col min="15" max="22" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="3" width="5.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="9.109375" style="4"/>
+    <col min="13" max="14" width="10.6640625" style="4" customWidth="1"/>
+    <col min="15" max="22" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -975,11 +1028,13 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12">
+        <v>708996</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="J3" s="4" t="s">
         <v>3</v>
@@ -987,7 +1042,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="5" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="178.8" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
@@ -995,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="23" t="s">
@@ -1003,7 +1058,7 @@
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="20" t="s">
@@ -1011,7 +1066,7 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="20"/>
@@ -1019,7 +1074,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="20"/>
@@ -1027,7 +1082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="20"/>
@@ -1035,7 +1090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="20" t="s">
@@ -1043,12 +1098,12 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="20" t="s">
@@ -1056,39 +1111,39 @@
       </c>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="8"/>
@@ -1096,7 +1151,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="9"/>
@@ -1104,7 +1159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="9"/>
@@ -1112,22 +1167,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D23" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
         <v>10</v>
@@ -1136,8 +1193,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
         <v>10</v>
@@ -1146,8 +1205,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
         <v>10</v>
@@ -1156,8 +1217,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
         <v>10</v>
@@ -1166,8 +1229,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
         <v>10</v>
@@ -1176,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
         <v>50</v>
       </c>
@@ -1188,13 +1253,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E33" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1205,8 +1272,10 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E34" s="9"/>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E34" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1217,7 +1286,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -1229,7 +1298,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -1241,32 +1310,34 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E40" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E41" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>40</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
         <v>11</v>
@@ -1275,7 +1346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
         <v>50</v>
       </c>
@@ -1290,28 +1361,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E50" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -1322,8 +1395,10 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E51" s="9"/>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E51" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -1334,8 +1409,10 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E52" s="9"/>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E52" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -1346,8 +1423,10 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E53" s="9"/>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E53" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -1358,19 +1437,21 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C55" s="13"/>
       <c r="D55" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E56" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="5">
+        <v>5</v>
+      </c>
       <c r="C58" s="18"/>
       <c r="D58" s="6" t="s">
         <v>61</v>
@@ -1379,8 +1460,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="5">
+        <v>5</v>
+      </c>
       <c r="C59" s="18"/>
       <c r="D59" s="6" t="s">
         <v>61</v>
@@ -1389,8 +1472,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="5">
+        <v>5</v>
+      </c>
       <c r="C60" s="18"/>
       <c r="D60" s="6" t="s">
         <v>61</v>
@@ -1399,8 +1484,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>5</v>
+      </c>
       <c r="C61" s="18"/>
       <c r="D61" s="6" t="s">
         <v>61</v>
@@ -1409,7 +1496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="15" t="s">
         <v>50</v>
       </c>
@@ -1421,13 +1508,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E63" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E64" s="8"/>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E64" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -1438,8 +1527,10 @@
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E65" s="9"/>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E65" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -1450,8 +1541,10 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E66" s="9"/>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E66" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -1462,7 +1555,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -1474,8 +1567,10 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="5"/>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <v>5</v>
+      </c>
       <c r="C69" s="5"/>
       <c r="D69" s="4" t="s">
         <v>61</v>
@@ -1484,8 +1579,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="5"/>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <v>5</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="4" t="s">
         <v>63</v>
@@ -1494,8 +1591,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="5"/>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <v>5</v>
+      </c>
       <c r="C71" s="5"/>
       <c r="D71" s="4" t="s">
         <v>61</v>
@@ -1504,8 +1603,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="5"/>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>5</v>
+      </c>
       <c r="C72" s="5"/>
       <c r="D72" s="4" t="s">
         <v>61</v>
@@ -1514,8 +1615,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <v>5</v>
+      </c>
       <c r="C73" s="5"/>
       <c r="D73" s="4" t="s">
         <v>61</v>
@@ -1524,8 +1627,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <v>5</v>
+      </c>
       <c r="C74" s="5"/>
       <c r="D74" s="4" t="s">
         <v>61</v>
@@ -1534,7 +1639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="15" t="s">
         <v>50</v>
       </c>
@@ -1546,13 +1651,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E77" s="8"/>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E77" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -1563,8 +1670,10 @@
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E78" s="9"/>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E78" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -1575,8 +1684,10 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E79" s="9"/>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E79" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -1587,8 +1698,10 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E80" s="9"/>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E80" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -1599,23 +1712,25 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D82" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E83" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E85" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="5"/>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="5">
+        <v>5</v>
+      </c>
       <c r="C86" s="5"/>
       <c r="D86" s="4" t="s">
         <v>61</v>
@@ -1624,8 +1739,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="5">
+        <v>5</v>
+      </c>
       <c r="C87" s="5"/>
       <c r="D87" s="4" t="s">
         <v>61</v>
@@ -1634,8 +1751,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="5">
+        <v>5</v>
+      </c>
       <c r="C88" s="5"/>
       <c r="D88" s="4" t="s">
         <v>61</v>
@@ -1644,8 +1763,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="5">
+        <v>5</v>
+      </c>
       <c r="C89" s="5"/>
       <c r="D89" s="4" t="s">
         <v>61</v>
@@ -1654,8 +1775,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="5">
+        <v>5</v>
+      </c>
       <c r="C90" s="5"/>
       <c r="D90" s="4" t="s">
         <v>61</v>
@@ -1664,7 +1787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="15" t="s">
         <v>50</v>
       </c>
@@ -1676,13 +1799,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="5">
+        <v>5</v>
+      </c>
       <c r="C93" s="5"/>
       <c r="D93" s="4" t="s">
         <v>61</v>
@@ -1691,8 +1816,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="5">
+        <v>5</v>
+      </c>
       <c r="C94" s="5"/>
       <c r="D94" s="4" t="s">
         <v>61</v>
@@ -1701,8 +1828,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="5">
+        <v>5</v>
+      </c>
       <c r="C95" s="5"/>
       <c r="D95" s="4" t="s">
         <v>61</v>
@@ -1711,8 +1840,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="5">
+        <v>5</v>
+      </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
         <v>61</v>
@@ -1721,8 +1852,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B97" s="5">
+        <v>5</v>
+      </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
         <v>61</v>
@@ -1731,7 +1864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B98" s="15" t="s">
         <v>50</v>
       </c>
@@ -1743,8 +1876,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B100" s="5"/>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B100" s="5">
+        <v>5</v>
+      </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
         <v>61</v>
@@ -1753,7 +1888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B101" s="15" t="s">
         <v>50</v>
       </c>
@@ -1765,12 +1900,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="8"/>
+      <c r="E103" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -1789,7 +1926,7 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1813,7 +1950,7 @@
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
     </row>
-    <row r="105" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1837,7 +1974,7 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
     </row>
-    <row r="106" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1861,28 +1998,30 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D108" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D109" s="13"/>
       <c r="E109" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E110" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D111" s="13"/>
     </row>
-    <row r="112" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
       <c r="C112" s="5"/>
       <c r="D112" s="6" t="s">
         <v>28</v>
@@ -1908,9 +2047,11 @@
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
     </row>
-    <row r="113" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6" t="s">
         <v>28</v>
@@ -1936,9 +2077,11 @@
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
     </row>
-    <row r="114" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
       <c r="C114" s="5"/>
       <c r="D114" s="6" t="s">
         <v>28</v>
@@ -1964,9 +2107,11 @@
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
     </row>
-    <row r="115" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="5">
+        <v>0</v>
+      </c>
       <c r="C115" s="5"/>
       <c r="D115" s="6" t="s">
         <v>44</v>
@@ -1992,9 +2137,11 @@
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
     </row>
-    <row r="116" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6" t="s">
         <v>44</v>
@@ -2020,9 +2167,11 @@
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
     </row>
-    <row r="117" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
-      <c r="B117" s="5"/>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
       <c r="C117" s="5"/>
       <c r="D117" s="6" t="s">
         <v>44</v>
@@ -2048,9 +2197,11 @@
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
     </row>
-    <row r="118" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
-      <c r="B118" s="5"/>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
       <c r="C118" s="5"/>
       <c r="D118" s="6" t="s">
         <v>44</v>
@@ -2076,9 +2227,11 @@
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
     </row>
-    <row r="119" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
       <c r="C119" s="5"/>
       <c r="D119" s="6" t="s">
         <v>44</v>
@@ -2104,9 +2257,11 @@
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
     </row>
-    <row r="120" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
       <c r="C120" s="5"/>
       <c r="D120" s="6" t="s">
         <v>44</v>
@@ -2132,9 +2287,11 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
     </row>
-    <row r="121" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
       <c r="C121" s="5"/>
       <c r="D121" s="6" t="s">
         <v>44</v>
@@ -2160,9 +2317,11 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
     </row>
-    <row r="122" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
+      <c r="B122" s="5">
+        <v>0</v>
+      </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6" t="s">
         <v>44</v>
@@ -2188,9 +2347,11 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
     </row>
-    <row r="123" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
+      <c r="B123" s="5">
+        <v>0</v>
+      </c>
       <c r="C123" s="5"/>
       <c r="D123" s="6" t="s">
         <v>45</v>
@@ -2216,9 +2377,11 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
     </row>
-    <row r="124" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
+      <c r="B124" s="5">
+        <v>0</v>
+      </c>
       <c r="C124" s="5"/>
       <c r="D124" s="6" t="s">
         <v>45</v>
@@ -2244,9 +2407,11 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
     </row>
-    <row r="125" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
+      <c r="B125" s="5">
+        <v>0</v>
+      </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6" t="s">
         <v>45</v>
@@ -2272,9 +2437,11 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
     </row>
-    <row r="126" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
       <c r="C126" s="5"/>
       <c r="D126" s="6" t="s">
         <v>45</v>
@@ -2300,9 +2467,11 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
     </row>
-    <row r="127" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5">
+        <v>0</v>
+      </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6" t="s">
         <v>45</v>
@@ -2328,9 +2497,11 @@
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
     </row>
-    <row r="128" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6" t="s">
         <v>45</v>
@@ -2356,9 +2527,11 @@
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
     </row>
-    <row r="129" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
+      <c r="B129" s="5">
+        <v>0</v>
+      </c>
       <c r="C129" s="5"/>
       <c r="D129" s="6" t="s">
         <v>45</v>
@@ -2384,7 +2557,7 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B130" s="15" t="s">
         <v>50</v>
       </c>
@@ -2396,22 +2569,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B131" s="15"/>
       <c r="C131" s="1"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D132" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D133" s="13"/>
     </row>
-    <row r="134" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
       <c r="C134" s="5">
         <v>0</v>
       </c>
@@ -2439,9 +2614,11 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
     </row>
-    <row r="135" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
       <c r="C135" s="5">
         <v>0</v>
       </c>
@@ -2469,9 +2646,11 @@
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
     </row>
-    <row r="136" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
+      <c r="B136" s="5">
+        <v>0</v>
+      </c>
       <c r="C136" s="5">
         <v>0</v>
       </c>
@@ -2499,9 +2678,11 @@
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
     </row>
-    <row r="137" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
+      <c r="B137" s="5">
+        <v>0</v>
+      </c>
       <c r="C137" s="5">
         <v>0</v>
       </c>
@@ -2529,9 +2710,11 @@
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
     </row>
-    <row r="138" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
-      <c r="B138" s="5"/>
+      <c r="B138" s="5">
+        <v>0</v>
+      </c>
       <c r="C138" s="5">
         <v>0</v>
       </c>
@@ -2559,9 +2742,11 @@
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
     </row>
-    <row r="139" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
-      <c r="B139" s="5"/>
+      <c r="B139" s="5">
+        <v>0</v>
+      </c>
       <c r="C139" s="5">
         <v>0</v>
       </c>
@@ -2589,7 +2774,7 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B140" s="15" t="s">
         <v>50</v>
       </c>
@@ -2601,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2625,7 +2810,7 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
     </row>
-    <row r="142" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2649,7 +2834,7 @@
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
     </row>
-    <row r="143" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2673,7 +2858,7 @@
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
     </row>
-    <row r="144" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2697,7 +2882,7 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
       <c r="B146" s="24" t="s">
         <v>22</v>
@@ -2715,7 +2900,7 @@
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +2916,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>25</v>
       </c>
@@ -2746,12 +2931,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J150" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D151" s="6" t="s">
         <v>26</v>
       </c>
@@ -2762,7 +2947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2786,7 +2971,7 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
     </row>
-    <row r="154" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2810,7 +2995,7 @@
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
     </row>
-    <row r="155" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2834,7 +3019,7 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
     </row>
-    <row r="156" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2858,7 +3043,7 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>1</v>
       </c>
